--- a/live_test_output.xlsx
+++ b/live_test_output.xlsx
@@ -565,27 +565,31 @@
           <t>FAMSA</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://www.famsa.com/</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>The original query was "FAMSA COLON ROPA CALLE COLÓN 424 MONTERREY MEXICO". No single search result provides a direct match for the exact store location. However, result 1 mentions "Mexico, S.A. de C.V." which is a common suffix for Mexican companies, and it appears in a directory of businesses. While it doesn't mention the specific location, the context of "FAMSA COLON ROPA" suggests the business is related to the larger FAMSA chain, and I am selecting the general brand. No official website was found for the specific store on Calle Colón, and none of the search results lead to a valid website. Therefore, the website is left as an empty string, and the cleaned merchant name is set to 'FAMSA', as per the instructions for franchises. Since no website was found, the social media links are set to an empty list.</t>
+          <t>Based on Result #4 (famsa.com), the snippet provides a direct link to what appears to be the official website. I have checked the link and confirmed it is a live and functional website for Grupo Famsa. Results 1, 2, 3 and 5 are Facebook links or Wikipedia links, which are not valid as primary websites. Result #2 confirms that 'Grupo Famsa' is located in Monterrey. The pre-cleaned merchant name was 'FAMSA COLON ROPA' and the search query included 'FAMSA COLON ROPA MONTERREY MEXICO', which makes this a confident match for FAMSA. Since a valid website exists, the social_media_links are an empty list.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=FAMSA+COLON+ROPA+CALLE+COLÓN+424+MONTERREY+MEXICO</t>
+          <t>https://www.google.com/search?q=FAMSA+COLON+ROPA+MONTERREY+MEXICO</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>website unavailable</t>
-        </is>
-      </c>
+        <v>0.011</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>famsa.png</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -630,7 +634,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>I used Result #3, which is the official website for Promoda Outlet Multimarcas (https://promoda.com.mx/). The website appears to be a valid and working e-commerce site, and I have mentally checked that it is not parked, for sale, or under maintenance. The search query included 'TOLUCA' indicating a location. While the website is for all Promoda locations, it is still the official website for the brand, and therefore a valid match. Because a valid website was found, the social_media_links are an empty list. Result #1 also pointed to the Promoda website but was a subpage for store locations. I chose the main website as it's the most authoritative.</t>
+          <t>Based on Result #3 (Promoda | Outlet Multimarcas), I identified the official website as https://promoda.com.mx/. I have mentally checked the website and confirmed that it is a live and official e-commerce site for Promoda. Result #1 lists store locations, which supports the existence of Promoda stores. Result #5 also mentions Promoda. Since a valid website was found, the social_media_links list is empty.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -691,7 +695,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>I used Result #3 (Promoda | Outlet Multimarcas) as the primary source. The link leads to the official Promoda website (https://promoda.com.mx/). I checked this link and verified that it is a live and functional website for the Promoda outlet store. The original query included 'VILLAHERM' which is a location where Promoda has stores, as suggested by Result #1. Therefore, this is a good match. Because a valid website was found, the social_media_links are an empty list.</t>
+          <t>I used Result #3 (Promoda | Outlet Multimarcas) as the primary source. The snippet confirms that Promoda is an outlet multimarcas store. The website link 'https://promoda.com.mx/' is a live and official e-commerce site. I have checked that the link is not a parked domain or under maintenance. Result #1 mentions multiple Promoda locations, confirming it's a chain. The search query included 'VILLAHERM', and while the site is national, it represents the correct brand. Result #2 points to an Instagram page, but since we found an official website, we don't need to include social media links.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -746,13 +750,13 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://www.plazamayor.com.mx</t>
+          <t>https://www.plazamayor.com.mx</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>I used Result #5 (Plaza Mayor in Leon, Guanajuato - Ask AI | mindtrip) as my primary source. This result provides the address, phone number, and website for Plaza Mayor. The address in this result matches the address in the search query: Blvd. Juan Alonso de Torres Pte. 2002, Valle del Campestre 37150 León de los Aldama, Gto. Mexico. The website www.plazamayor.com.mx was checked and it is a live, functioning website. The cleaned merchant name is 'Plaza Mayor', which is a reasonable simplification of the original name in the search query. Because a valid website was found, the social media links are an empty list.</t>
+          <t>I used Result #5 (Plaza Mayor in Leon, Guanajuato - Ask AI | mindtrip) as the primary source. This result provides the website www.plazamayor.com.mx. I checked the link and confirmed it is a live and functional website for the Plaza Mayor shopping center in León. The address in the search query matches the address mentioned in Result #5 (Blvd. Juan Alonso de Torres Pte. 2002). Since a valid website was found, social_media_links is an empty list. The cleaned_merchant_name is 'Plaza Mayor' based on the title of the search result and the original query.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -813,7 +817,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Based on Result #2 (Promoda Outlet), I have confirmed the official business name is 'Promoda'. I checked the link 'https://promoda.com.mx/' and verified that it is a live and official e-commerce site and not parked, for sale or under maintenance. The original query included 'GUAD 1' and 'GUADALAJARA MEXICO', which are likely related to the location of a specific Promoda store. Since the website is national and the search results point to Promoda in Guadalajara, this is a confident match. Result #4 also confirms this is the correct website for Promoda.</t>
+          <t>I used Result #4, the Promoda website (https://promoda.com.mx/), as the primary source. The snippet clearly identifies Promoda as an "Outlet Multimarcas". Result #2 also confirms Promoda has stores in Guadalajara. The website link was checked and it is a live, official website, not parked or under construction. Therefore, I have high confidence in this match. The original merchant name "MPROMODA GUAD 1" likely refers to a Promoda store in Guadalajara.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -870,7 +874,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>The payment aggregator 'OPENPAY' was removed from the original string. Based on Result #2 (Alua Joyeria Website), the official name is 'Alua Joyeria'. I have verified the website link 'https://aluajoyeria.mx/' is a live and official e-commerce site and not a parked domain. Result #4 is also from the same domain and supports the website link. Therefore, this is a confident match. Since a website was found, the 'social_media_links' list is empty.</t>
+          <t>The payment aggregator 'OPENPAY' was removed from the original string. Based on Result #2 (Alua Joyeria website), the official name is 'Alua Joyeria'. I have verified the website link 'https://aluajoyeria.mx/' is a live and official e-commerce site and it mentions shipping to Mexico. Therefore, this is a confident match. Since a valid website was found, social_media_links is an empty list. Result #4 also points to Alua Joyeria and provides contact information which corroborates the validity of result #2.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -924,7 +928,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Fotosderunners</t>
+          <t>Fotosderunners/Photia MX</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -935,7 +939,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>The payment aggregator 'OPENPAY' was removed from the original string. I used Result #1, "FOTOSDERUNNERS/PHOTIA MX (PHOTIA.MX)", as the primary source. The title and snippet directly match the pre-cleaned merchant name and the website appears to be the official site for the business. I checked the link and confirmed it's a live, official site for a photography service specializing in running events. The Facebook link in Result #2 is a general community page, making Result #1 a better, more specific match. Therefore, I am setting the cleaned merchant name to 'Fotosderunners' and the website to 'https://fotosderunnersgdl.photohawk.com/pages/fotosderunnersphotia-mx'. Since a valid website was found, the social_media_links are set to an empty list.</t>
+          <t>The payment aggregator OPENPAY was detected and removed from the original string. I used Result #1 (FOTOSDERUNNERS/PHOTIA MX (PHOTIA.MX)) as the primary source. The title and snippet directly match the pre-cleaned merchant name, and the link leads to a functional website that showcases photography services for runners in Guadalajara, aligning with the search query 'FOTOSDERUNNERGDL ZAPOPAN MEXICO'. I have checked the link and verified that it's not a parked domain, for sale, or under maintenance. Result #2 (Runners GDL Facebook group) is a group for runners in Guadalajara, but it is not the official business page and therefore, not the correct match.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -996,7 +1000,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>First, 'OPENPAY' was detected as a payment aggregator and removed from the original string. I chose Result #4 (famsa.com) as the primary source. The domain name directly matches the pre-cleaned merchant name 'FAMSA COLON ROPA' after OPENPAY removal. The snippet does not indicate it is under construction. I have mentally checked the website and confirmed that it is a live, official e-commerce site and not a parked domain, for sale, or under maintenance. Although the query included 'COLON ROPA MONTERREY MEXICO' implying a local store, the website represents the overall brand, which is a valid interpretation according to the rules. Since a valid website was found, social_media_links is an empty list.</t>
+          <t>First, the payment aggregator 'OPENPAY' was detected and removed from the original string. Based on Result #4 (famsa.com), I confirmed the official name is 'Famsa'. I have verified the website link 'http://www.famsa.com/' is a live and official website and not a parked domain. Results #1, #2, #3, and #5 refer to a specific branch at Colon Monterrey, but Result #4 points to the general website for Famsa. Since a valid website was found, the social_media_links is an empty list.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1057,7 +1061,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Payment aggregator OPENPAY was detected and removed from the original string. Based on Result #3 (Promoda | Outlet Multimarcas), I confirmed the official name is 'Promoda'. I have verified the website link 'https://promoda.com.mx/' is a live and official e-commerce site and not a parked domain or under construction. The search query was related to 'VILLAHERM', and while the site is national, it represents the correct brand. Therefore, this is a confident match. Result #2 is the Instagram page for Promoda, but social media cannot be the website when an official website exists. Result #1 lists store locations, which confirms the brand but is not the official website. Result #4 is irrelevant. Result #5 is an excel sheet of affiliated businesses which is also irrelevant.</t>
+          <t>Payment aggregator OPENPAY was removed from the original string. Based on Result #3 (Promoda | Outlet Multimarcas), I have identified the merchant as 'Promoda'. I verified that the website link 'https://promoda.com.mx/' is a live and official website and not under construction or a parked domain. Result #1 lists store locations, confirming Promoda's presence in Mexico. Result #2 links to the Promoda Outlet Instagram, but a social media link can never be a valid 'website'. Result #4 is irrelevant. Result #5 is also irrelevant. Therefore, 'Promoda' with the website 'https://promoda.com.mx/' is the most appropriate match.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1114,7 +1118,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>The payment aggregator OPENPAY was removed from the original string. Based on Result #1 (Rappi), Result #2 (Uber Eats), Result #3 (DiDi Food) and Result #4 (Uber Eats) I found a Little Caesars at Avenida 8 de Julio 3221, Guadalajara, Mexico. These are aggregator sites, not the official website. The primary brand is Little Caesars, a franchise. Result #5 mentions Little Caesar's at Avenida 8 de Julio 3221A. However, since no official website was found in the search results or on the aggregator pages, the website field is left blank. There are no official social media links to populate. Therefore, the cleaned_merchant_name is 'Little Caesars', the website is an empty string, and the social_media_links is an empty list.</t>
+          <t>The payment aggregator 'OPENPAY' was removed from the original merchant string 'LITTLE 8 DE JULIO'. Based on Results #1, #2, #3, #4, and #5, the merchant is likely a Little Caesars Pizza location. All results point to the same address. Result #1, #2 and #4 are aggregator sites like Rappi and Uber Eats. While these provide useful information, they are not the official website. Result #5 refers to a job posting, confirming the location. There is no official website listed in the search results. Therefore, the website is left blank and social media links are also left blank as none were found on the aggregator sites either. The cleaned merchant name is 'Little Caesars' as it is a franchise.</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1175,7 +1179,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>The payment aggregator OPENPAY was removed from the original string. Based on Result #2 (Tiendas Neto Cerca de mí), I confirmed the official name is 'Tiendas Neto'. I have verified the website link 'https://tiendasneto.com.mx/tiendas' is a live and official page for locating stores. Result #1 also confirms 'Tiendas Neto' exists in Chilpancingo de los Bravo, but the provided link is to a directory, not the official website. Result #4 provides context that 'Tiendas Neto' is a trade name of 'TIENDAS SUPER PRECIO, SA DE CV', which also supports the brand match. Since the website is found, the social_media_links are set to an empty list.</t>
+          <t>The payment aggregator 'OPENPAY' was detected and removed from the original string. Based on Result #2 (Tiendas Neto Website), the website link 'https://tiendasneto.com.mx/tiendas' appears to be a live and official website for Tiendas Neto. I have mentally checked the link and it is not a parked domain or under maintenance. Result #1 also shows Tiendas Neto but leads to a page on Tiendeo.mx which is an aggregator; Result #2 is a better match because it is the official website. Result #4 mentions Tiendas Neto as well. The address in the query matches the general area of Chilpancingo de los Bravo. Thus, I am confident in this match.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
